--- a/data/trans_bre/P68-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P68-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P68-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P68-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,82; 11,15</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 11,49</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 4,67</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-36,86; 52,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,94; 29,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,84; 53,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,38; 7,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 7,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,39; 1,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 16,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,17; 34,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,8; 26,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,81; 2,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 108,55</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 13,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 14,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 8,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 14,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,11; 85,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,76; 106,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,37; 73,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,97; 50,39</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; -0,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; 7,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 23,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 23,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,08; -0,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,7; 29,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,3; 103,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,51; 122,35</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,92%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,87; 7,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,93; 15,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; 4,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,25; 1,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,91; 53,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,85; 119,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,14; 50,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 12,31</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,26%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,12; 0,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,41; 4,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,47; 0,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 21,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,46; 4,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,76; 15,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,91; 4,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 112,8</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 6,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 13,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; 7,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,96; 25,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 79,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,82; 22,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 38,25</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,39%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 3,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 4,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 2,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 14,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; 16,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,49; 45,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,83; 33,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,92; 142,81</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; -0,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 3,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -0,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 8,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; -1,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 15,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 0,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,97; 46,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P68-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-11,93%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,46; 16,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,67</t>
+          <t>-8,07; 4,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,12; 59,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 53,22</t>
+          <t>-49,6; 57,12</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>39,79%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 16,87</t>
+          <t>-0,75; 16,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 108,55</t>
+          <t>-2,5; 107,39</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 14,62</t>
+          <t>-6,09; 14,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 50,39</t>
+          <t>-15,2; 52,56</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>30,4%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 7,96</t>
+          <t>-16,67; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 23,17</t>
+          <t>-12,87; 33,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 29,49</t>
+          <t>-44,19; 30,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 122,35</t>
+          <t>-49,39; 172,3</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-33,92%</t>
+          <t>-33,14%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 1,18</t>
+          <t>-13,16; 1,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 12,31</t>
+          <t>-62,42; 13,5</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>48,55%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 21,22</t>
+          <t>-0,64; 21,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 112,8</t>
+          <t>-1,96; 114,71</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 7,25</t>
+          <t>-6,0; 7,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 38,25</t>
+          <t>-22,21; 40,92</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>124,02%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 14,62</t>
+          <t>3,87; 22,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,92; 142,81</t>
+          <t>22,34; 551,86</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,36</t>
+          <t>2,26; 14,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 46,36</t>
+          <t>11,88; 113,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P68-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 11,15</t>
+          <t>-11,91; 10,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 16,43</t>
+          <t>-12,01; 15,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 11,49</t>
+          <t>-14,92; 11,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 4,98</t>
+          <t>-8,71; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 52,37</t>
+          <t>-37,78; 50,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 59,91</t>
+          <t>-31,74; 58,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 29,34</t>
+          <t>-31,15; 34,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 57,12</t>
+          <t>-52,1; 62,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 7,81</t>
+          <t>-10,58; 9,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 7,18</t>
+          <t>-15,62; 8,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 1,47</t>
+          <t>-23,17; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 16,87</t>
+          <t>-1,27; 17,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 34,55</t>
+          <t>-36,2; 38,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 26,78</t>
+          <t>-41,6; 34,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 2,72</t>
+          <t>-44,65; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 107,39</t>
+          <t>-3,84; 120,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 13,37</t>
+          <t>-8,09; 12,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 14,79</t>
+          <t>-6,14; 16,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 8,48</t>
+          <t>-12,62; 8,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 14,68</t>
+          <t>-6,09; 15,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 85,56</t>
+          <t>-32,45; 76,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 106,51</t>
+          <t>-31,65; 120,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 73,32</t>
+          <t>-59,6; 66,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 52,56</t>
+          <t>-16,25; 55,96</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -0,34</t>
+          <t>-17,7; -0,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 7,84</t>
+          <t>-15,63; 9,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 23,31</t>
+          <t>-4,4; 22,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 33,18</t>
+          <t>-14,64; 32,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,08; -0,3</t>
+          <t>-58,78; -1,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 30,28</t>
+          <t>-42,28; 35,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 103,08</t>
+          <t>-14,7; 95,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 172,3</t>
+          <t>-52,04; 169,68</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 7,11</t>
+          <t>-18,42; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 15,34</t>
+          <t>-12,96; 15,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 4,81</t>
+          <t>-19,16; 3,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 1,3</t>
+          <t>-12,0; 2,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 53,98</t>
+          <t>-74,81; 41,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 119,6</t>
+          <t>-53,57; 114,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 50,56</t>
+          <t>-79,42; 41,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-62,42; 13,5</t>
+          <t>-61,36; 25,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 0,41</t>
+          <t>-20,6; 1,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 4,82</t>
+          <t>-24,18; 5,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 0,06</t>
+          <t>-22,02; -0,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 21,47</t>
+          <t>0,83; 22,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,46; 4,67</t>
+          <t>-65,66; 4,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,76; 15,81</t>
+          <t>-58,06; 16,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,91; 4,47</t>
+          <t>-82,1; 4,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 114,71</t>
+          <t>2,48; 117,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 6,09</t>
+          <t>-9,88; 5,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 13,3</t>
+          <t>-2,63; 14,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,38</t>
+          <t>-8,79; 4,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,63</t>
+          <t>-5,26; 8,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 25,61</t>
+          <t>-34,49; 24,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 79,35</t>
+          <t>-12,25; 84,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 22,25</t>
+          <t>-35,31; 23,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 40,92</t>
+          <t>-20,67; 47,27</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 3,42</t>
+          <t>-9,08; 4,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,57</t>
+          <t>-6,36; 4,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,94</t>
+          <t>-8,59; 2,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,87; 22,16</t>
+          <t>3,41; 22,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 16,94</t>
+          <t>-35,06; 18,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 45,85</t>
+          <t>-43,15; 48,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,83; 33,39</t>
+          <t>-58,44; 30,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,34; 551,86</t>
+          <t>18,82; 541,31</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,19</t>
+          <t>-6,32; 0,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,47</t>
+          <t>-4,3; 2,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,05</t>
+          <t>-7,44; -0,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,79</t>
+          <t>2,1; 14,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -1,01</t>
+          <t>-24,28; 1,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 15,64</t>
+          <t>-17,41; 12,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 0,21</t>
+          <t>-27,73; -1,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,88; 113,38</t>
+          <t>10,36; 105,51</t>
         </is>
       </c>
     </row>
